--- a/Model & Data/Data_Input.xlsx
+++ b/Model & Data/Data_Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berne\Dropbox\Quantifying reliability of RES energy systems\IEEE 24 node toy system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MitarbeiterOrdner\Bernecker\GitHub Desktop Project Foulder\Quant-Reliability-Energy-Systems\Model &amp; Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF88111B-8C9F-42EF-8FD4-EBDAC7DA6AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A99127-FE28-4C57-BA45-642A4F4FC72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="315" windowWidth="14775" windowHeight="14610" xr2:uid="{67439250-8D29-4B77-BB37-656BF7DAD5E4}"/>
+    <workbookView xWindow="14205" yWindow="390" windowWidth="14775" windowHeight="14610" activeTab="1" xr2:uid="{67439250-8D29-4B77-BB37-656BF7DAD5E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Generation" sheetId="1" r:id="rId1"/>
@@ -816,9 +816,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,11 +839,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -1163,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5210EF34-7FD4-48B9-AA4B-40D7317C39F5}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2510,17 +2510,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778686A1-3F33-4ADF-BC08-270F4AA6560F}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="15" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2850,18 +2850,18 @@
       <c r="H1" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="S1" s="16" t="s">
+      <c r="Q1" s="16"/>
+      <c r="S1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="V1" s="17" t="s">
+      <c r="T1" s="17"/>
+      <c r="V1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="W1" s="17"/>
+      <c r="W1" s="18"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5331,30 +5331,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="21"/>
+      <c r="D1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="G1" s="14" t="s">
+      <c r="E1" s="22"/>
+      <c r="G1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="23"/>
+      <c r="J1" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="17"/>
+      <c r="M1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="24"/>
+      <c r="P1" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="19"/>
+      <c r="Q1" s="20"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
